--- a/ProyectoCheques/Repositorio/analisis.xlsx
+++ b/ProyectoCheques/Repositorio/analisis.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\DSC\CHEQUES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\DSC\DARWINET\darwincitoPrueba\ProyectoCheques\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="5430" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="5430"/>
   </bookViews>
   <sheets>
-    <sheet name="algoritmo" sheetId="2" r:id="rId1"/>
-    <sheet name="GENERAR CHEQUES" sheetId="1" r:id="rId2"/>
-    <sheet name="REPORTE GIROS" sheetId="4" r:id="rId3"/>
-    <sheet name="empresa" sheetId="3" r:id="rId4"/>
+    <sheet name="TAREAS" sheetId="3" r:id="rId1"/>
+    <sheet name="algoritmo" sheetId="2" r:id="rId2"/>
+    <sheet name="GENERAR CHEQUES" sheetId="1" r:id="rId3"/>
+    <sheet name="REPORTE GIROS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>SE PUEDE INGRESAR POR LOTES</t>
   </si>
@@ -90,13 +90,563 @@
   </si>
   <si>
     <t>POR EMPRESA, BANCO, CUENTA</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>TABLA: Accounts</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vamos a crear un join que relacionar 3 tablas </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Columna </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">de Accounts ejemplo:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A.Id </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Columna </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AccountNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de Accounts ejemplo:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.AccountNumber</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Columna </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de Bank que renombraremos como BankId ejemplo: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.Id  AS BankId</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Columna </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de Bank que renombraremos como BankName ejemplo: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.Name  AS BankName</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comumna </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de Companies que renombraremos como CompanyId ejemplo: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.Id  AS CompanyId</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comumna </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de Companies que renombraremos como CompanyName ejemplo: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.Name  AS CompanyName</t>
+    </r>
+  </si>
+  <si>
+    <t>asi podemos obtener (select)  las siguientes columnas de las 3 tablas</t>
+  </si>
+  <si>
+    <t>por medio de un join vamos a obtener la siguiente informacion</t>
+  </si>
+  <si>
+    <t>Ordenar los resultados</t>
+  </si>
+  <si>
+    <t>quiero ordenar los resultados con este orden  por</t>
+  </si>
+  <si>
+    <t>2 - nombre de banco</t>
+  </si>
+  <si>
+    <t>1 - nombre de compania</t>
+  </si>
+  <si>
+    <t>3 - numero de cuenta</t>
+  </si>
+  <si>
+    <t>TABLA: City</t>
+  </si>
+  <si>
+    <t>vamos a obtener una list  de todas las ciudades</t>
+  </si>
+  <si>
+    <t>obtener columnas</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ordenar por</t>
+  </si>
+  <si>
+    <t>Name (ascendente)</t>
+  </si>
+  <si>
+    <t>TABLA: ReportsTypes</t>
+  </si>
+  <si>
+    <t>TABLA: Cheques</t>
+  </si>
+  <si>
+    <t>el sp recibira como parametros de entrada</t>
+  </si>
+  <si>
+    <t>es importante indicar que este valor "IdAccount" aunque no es visible en la lista (front  solo aparece el "No Cuenta")  este id esta oculto y cuando seleccionamos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">un valor de la lista obtendremos este valor desde el metodo en el evento "click" ejemplo: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(click)="ObtenerIdAccount($sender, item.Id)"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">@IdAccount </t>
+  </si>
+  <si>
+    <t>@StartDate</t>
+  </si>
+  <si>
+    <t>@EndDate</t>
+  </si>
+  <si>
+    <t>desde que fecha filtramos los resultados del select</t>
+  </si>
+  <si>
+    <t>hasta que fecha filtramos los resultados del select</t>
+  </si>
+  <si>
+    <t>Cheques</t>
+  </si>
+  <si>
+    <t>Beneficiaries</t>
+  </si>
+  <si>
+    <t>ReportsTypes</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>C.Name AS CompanyName</t>
+  </si>
+  <si>
+    <t>B.Name AS BankName</t>
+  </si>
+  <si>
+    <t>A.AccountNumber</t>
+  </si>
+  <si>
+    <t>R.Name AS ReportTypeName</t>
+  </si>
+  <si>
+    <t>vamos a crear un join que relacionar 4 tablas y obtendra las siguientes columnas en el select</t>
+  </si>
+  <si>
+    <t>CH.ChequeNumber</t>
+  </si>
+  <si>
+    <t>CI.Name AS CityName</t>
+  </si>
+  <si>
+    <t>BF.Name AS BeneficiaryName</t>
+  </si>
+  <si>
+    <t>CH.Amount</t>
+  </si>
+  <si>
+    <t>CH.Date</t>
+  </si>
+  <si>
+    <t>CH.PaymentDetail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CH.Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (fecha de emision de cheque)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CH.ChequeNumber</t>
+    </r>
+  </si>
+  <si>
+    <t>TABLA: Beneficiaries</t>
+  </si>
+  <si>
+    <t>nos permitira insertar un beneficiario si este no existe en nuestra base de datos</t>
+  </si>
+  <si>
+    <t>@Id</t>
+  </si>
+  <si>
+    <t>que es la cedula del beneficiario</t>
+  </si>
+  <si>
+    <t>@Name</t>
+  </si>
+  <si>
+    <t>que es el nombre del beneficiario</t>
+  </si>
+  <si>
+    <t>nos permitira insertar un Giro de un Cheque</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREAR SP con nombre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp_CityGetAll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREAR SP con nombre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp_ReportsTypesGetAll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREAR SP con nombre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp_AccountGetAll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREAR SP con nombre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp_ChequesGetByDateRange</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREAR SP con nombre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp_ChequeCreate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREAR SP con nombre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp_BeneficiariesCreate</t>
+    </r>
+  </si>
+  <si>
+    <t>nos permite obtener un reporte de cheques girados por fecha</t>
+  </si>
+  <si>
+    <t>@StartChequeNumber</t>
+  </si>
+  <si>
+    <t>@EndChequeNumber</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREAR SP con nombre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp_ChequesGetReport</t>
+    </r>
+  </si>
+  <si>
+    <t>nos permite obtener los datos de cheques para un reporte individual o grupal filtrado por numero de cheque inicial y final</t>
+  </si>
+  <si>
+    <t>@ReportTypeId</t>
+  </si>
+  <si>
+    <t>es el id del tipo de reporte por el que queremos filtrar la tabla cheques</t>
+  </si>
+  <si>
+    <t>desde que numero de cheque filtramos los resultados del select</t>
+  </si>
+  <si>
+    <t>hasta que numero de cheque filtramos los resultados del select</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +690,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +715,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,13 +737,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,8 +758,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -198,6 +774,158 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>73269</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>141138</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4278923" cy="963081"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1062404" y="1093638"/>
+          <a:ext cx="4278923" cy="963081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>227133</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146537</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>72963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1216268" y="1047750"/>
+          <a:ext cx="1817077" cy="549213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161192</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1458058" y="3751385"/>
+          <a:ext cx="1589942" cy="540272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>197828</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>51290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556847</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>89332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1186963" y="12243290"/>
+          <a:ext cx="3018692" cy="1181042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1599,7 +2327,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2281,413 +3009,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>732692</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>168520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>175846</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="732692" y="359020"/>
-          <a:ext cx="5539154" cy="2674326"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>578827</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>189034</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>477716</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>51287</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8960827" y="1522534"/>
-          <a:ext cx="1422889" cy="243253"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>602274</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7326</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="896143" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8984274" y="1150326"/>
-          <a:ext cx="896143" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Razon Social</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600807</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>167053</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>499696</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>29306</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6696807" y="1500553"/>
-          <a:ext cx="1422889" cy="243253"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>602273</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="427040" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CuadroTexto 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6698273" y="1142999"/>
-          <a:ext cx="427040" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>RUC</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>36635</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>27841</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3693832" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CuadroTexto 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="798635" y="408841"/>
-          <a:ext cx="3693832" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>NO HAY MANENIMIENTO SOLO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> SE GENERARAN SCRIPT SQL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>117231</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>159726</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="427040" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CuadroTexto 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6975231" y="1493226"/>
-          <a:ext cx="427040" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>RUC</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2954,10 +3275,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B3:F159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="3.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="3.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="11"/>
+      <c r="F77" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="11"/>
+      <c r="F79" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D107" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D109" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="11"/>
+      <c r="F113" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="11"/>
+      <c r="F115" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D116" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D133" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E134" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="10"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D141" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D143" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E144" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E146" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D152" s="9"/>
+      <c r="E152" s="10"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D154" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E157" s="11"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E159" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,12 +3958,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J3:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,7 +4023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J3"/>
   <sheetViews>
@@ -3127,23 +4044,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/ProyectoCheques/Repositorio/analisis.xlsx
+++ b/ProyectoCheques/Repositorio/analisis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\DSC\DARWINET\darwincitoPrueba\ProyectoCheques\Repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Escritorio\programacion\DarwinGit\dsc-cursos\ProyectoCheques\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D8099F-74E3-48FD-B841-A0B0EC3712B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4815" windowHeight="5430"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAREAS" sheetId="3" r:id="rId1"/>
@@ -645,7 +646,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -785,7 +786,13 @@
     <xdr:ext cx="4278923" cy="963081"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -823,7 +830,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -861,7 +874,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -899,7 +918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -942,7 +967,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1"/>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1004,7 +1035,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2"/>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1066,7 +1103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4"/>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1122,7 +1165,13 @@
     <xdr:ext cx="1843005" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CuadroTexto 5"/>
+        <xdr:cNvPr id="6" name="CuadroTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1178,7 +1227,13 @@
     <xdr:ext cx="1717430" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CuadroTexto 6"/>
+        <xdr:cNvPr id="7" name="CuadroTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1242,7 +1297,13 @@
     <xdr:ext cx="1359876" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1306,7 +1367,13 @@
     <xdr:ext cx="1522534" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CuadroTexto 8"/>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1370,7 +1437,13 @@
     <xdr:ext cx="1909497" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CuadroTexto 9"/>
+        <xdr:cNvPr id="10" name="CuadroTexto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1426,7 +1499,13 @@
     <xdr:ext cx="1620187" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CuadroTexto 10"/>
+        <xdr:cNvPr id="11" name="CuadroTexto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1487,7 +1566,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectángulo 11"/>
+        <xdr:cNvPr id="12" name="Rectángulo 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1556,7 +1641,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectángulo 12"/>
+        <xdr:cNvPr id="13" name="Rectángulo 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1614,7 +1705,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectángulo 14"/>
+        <xdr:cNvPr id="15" name="Rectángulo 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1665,7 +1762,13 @@
     <xdr:ext cx="1220912" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CuadroTexto 15"/>
+        <xdr:cNvPr id="16" name="CuadroTexto 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1726,7 +1829,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectángulo 16"/>
+        <xdr:cNvPr id="17" name="Rectángulo 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1795,7 +1904,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Triángulo isósceles 17"/>
+        <xdr:cNvPr id="18" name="Triángulo isósceles 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1858,7 +1973,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectángulo 18"/>
+        <xdr:cNvPr id="19" name="Rectángulo 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1935,7 +2056,13 @@
     <xdr:ext cx="1291507" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CuadroTexto 19"/>
+        <xdr:cNvPr id="20" name="CuadroTexto 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2018,7 +2145,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectángulo 20"/>
+        <xdr:cNvPr id="21" name="Rectángulo 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2076,7 +2209,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectángulo 21"/>
+        <xdr:cNvPr id="22" name="Rectángulo 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2146,7 +2285,13 @@
     <xdr:ext cx="2107756" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CuadroTexto 22"/>
+        <xdr:cNvPr id="23" name="CuadroTexto 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2207,7 +2352,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectángulo 23"/>
+        <xdr:cNvPr id="24" name="Rectángulo 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2276,7 +2427,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Triángulo isósceles 24"/>
+        <xdr:cNvPr id="25" name="Triángulo isósceles 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2344,7 +2501,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1"/>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2406,7 +2569,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2"/>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2463,7 +2632,13 @@
     <xdr:ext cx="1843005" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2519,7 +2694,13 @@
     <xdr:ext cx="1717430" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CuadroTexto 5"/>
+        <xdr:cNvPr id="6" name="CuadroTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2583,7 +2764,13 @@
     <xdr:ext cx="1359876" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CuadroTexto 6"/>
+        <xdr:cNvPr id="7" name="CuadroTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2647,7 +2834,13 @@
     <xdr:ext cx="1522534" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2711,7 +2904,13 @@
     <xdr:ext cx="566822" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CuadroTexto 8"/>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2772,7 +2971,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectángulo 11"/>
+        <xdr:cNvPr id="12" name="Rectángulo 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2830,7 +3035,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectángulo 21"/>
+        <xdr:cNvPr id="22" name="Rectángulo 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2894,7 +3105,13 @@
     <xdr:ext cx="581121" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CuadroTexto 23"/>
+        <xdr:cNvPr id="24" name="CuadroTexto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2955,7 +3172,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectángulo 24"/>
+        <xdr:cNvPr id="25" name="Rectángulo 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3274,13 +3497,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B3:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3870,7 +4095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3959,7 +4184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="J3:K40"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4024,7 +4249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="J3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">

--- a/ProyectoCheques/Repositorio/analisis.xlsx
+++ b/ProyectoCheques/Repositorio/analisis.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Escritorio\programacion\DarwinGit\dsc-cursos\ProyectoCheques\Repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\DSC\DARWINET\darwincitoPrueba\ProyectoCheques\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D8099F-74E3-48FD-B841-A0B0EC3712B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TAREAS" sheetId="3" r:id="rId1"/>
     <sheet name="algoritmo" sheetId="2" r:id="rId2"/>
     <sheet name="GENERAR CHEQUES" sheetId="1" r:id="rId3"/>
     <sheet name="REPORTE GIROS" sheetId="4" r:id="rId4"/>
+    <sheet name="reportes" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>SE PUEDE INGRESAR POR LOTES</t>
   </si>
@@ -642,12 +642,18 @@
   <si>
     <t>hasta que numero de cheque filtramos los resultados del select</t>
   </si>
+  <si>
+    <t>3 COLUMNA</t>
+  </si>
+  <si>
+    <t>4 FILAS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +711,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -738,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -751,6 +764,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3235,6 +3249,543 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>366778</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="419100"/>
+          <a:ext cx="6119878" cy="3431764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="809625"/>
+          <a:ext cx="5667375" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="809625"/>
+          <a:ext cx="5667375" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="1704975"/>
+          <a:ext cx="5667375" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="1933575"/>
+          <a:ext cx="5667375" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectángulo 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="2095499"/>
+          <a:ext cx="5667375" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695326" y="514349"/>
+          <a:ext cx="2400300" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectángulo 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="504824"/>
+          <a:ext cx="3905249" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectángulo 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="504824"/>
+          <a:ext cx="5476875" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3497,13 +4048,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B3:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -4095,7 +4646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4184,10 +4735,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J3:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -4249,7 +4800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4269,4 +4820,34 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="K4:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ProyectoCheques/Repositorio/analisis.xlsx
+++ b/ProyectoCheques/Repositorio/analisis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TAREAS" sheetId="3" r:id="rId1"/>
@@ -4738,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J3:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4826,7 +4826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>

--- a/ProyectoCheques/Repositorio/analisis.xlsx
+++ b/ProyectoCheques/Repositorio/analisis.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\DSC\DARWINET\darwincitoPrueba\ProyectoCheques\Repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DARWIN\programacion\DarwinGit\dsc-cursos\ProyectoCheques\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E149E307-D777-4822-9DFB-BCE0D1FF8EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAREAS" sheetId="3" r:id="rId1"/>
     <sheet name="algoritmo" sheetId="2" r:id="rId2"/>
     <sheet name="GENERAR CHEQUES" sheetId="1" r:id="rId3"/>
     <sheet name="REPORTE GIROS" sheetId="4" r:id="rId4"/>
-    <sheet name="reportes" sheetId="5" r:id="rId5"/>
+    <sheet name="tabla ejmplo" sheetId="6" r:id="rId5"/>
+    <sheet name="reportes" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
   <si>
     <t>SE PUEDE INGRESAR POR LOTES</t>
   </si>
@@ -648,12 +656,147 @@
   <si>
     <t>4 FILAS</t>
   </si>
+  <si>
+    <t>&lt;table&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>&lt;thead&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;</t>
+  </si>
+  <si>
+    <t>thead</t>
+  </si>
+  <si>
+    <t>tbody</t>
+  </si>
+  <si>
+    <t>3 campos o columnas</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>no cuenta</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>no. Cuenta</t>
+  </si>
+  <si>
+    <t>galman</t>
+  </si>
+  <si>
+    <t>guayaquil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burrito </t>
+  </si>
+  <si>
+    <t>machachi</t>
+  </si>
+  <si>
+    <t>burrito</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>4 filas o registros</t>
+  </si>
+  <si>
+    <t>tfoot</t>
+  </si>
+  <si>
+    <t>&lt;tfoot&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/tfoot&gt;</t>
+  </si>
+  <si>
+    <t>padding: 15px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15px </t>
+  </si>
+  <si>
+    <t>15px</t>
+  </si>
+  <si>
+    <t>padding: 15px 5px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5px </t>
+  </si>
+  <si>
+    <t>5px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0px </t>
+  </si>
+  <si>
+    <t>25px</t>
+  </si>
+  <si>
+    <t>quito</t>
+  </si>
+  <si>
+    <t>cuenca</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>guayaquil rc5</t>
+  </si>
+  <si>
+    <t>soltero</t>
+  </si>
+  <si>
+    <t>casado</t>
+  </si>
+  <si>
+    <t>divorciado</t>
+  </si>
+  <si>
+    <t>viudo</t>
+  </si>
+  <si>
+    <t>union de hecho</t>
+  </si>
+  <si>
+    <t>reporte indivicual</t>
+  </si>
+  <si>
+    <t>reporte de grupo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,8 +861,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,8 +917,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -747,11 +944,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -765,9 +978,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -968,16 +1190,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>696058</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>51289</xdr:rowOff>
+      <xdr:rowOff>102578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>139212</xdr:colOff>
+      <xdr:colOff>219808</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:rowOff>139212</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -992,8 +1214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="696058" y="51289"/>
-          <a:ext cx="5539154" cy="7656634"/>
+          <a:off x="776654" y="102578"/>
+          <a:ext cx="5539154" cy="8799634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2495,6 +2717,205 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>310746</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>74309</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1785553" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CDB815-6A0D-4DA1-AD5A-FF18536FBD68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1074097" y="6694522"/>
+          <a:ext cx="1785553" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Numero debe ser mayor a 0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>294264</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>37561</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1487267" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CuadroTexto 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D460C746-9F85-4315-8988-2EA3B133E258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057615" y="5712029"/>
+          <a:ext cx="1487267" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>es campo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> es requerido</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-EC" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>243192</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1818639" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CuadroTexto 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F566868A-6582-4797-8177-995AA1963ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1006543" y="1513192"/>
+          <a:ext cx="1818639" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>debe seleccionar una opcion</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2503,15 +2924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>696058</xdr:colOff>
+      <xdr:colOff>241789</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>51289</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>139212</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>446943</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2526,7 +2947,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="696058" y="51289"/>
+          <a:off x="241789" y="0"/>
           <a:ext cx="5539154" cy="3597519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2911,9 +3332,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>275494</xdr:colOff>
+      <xdr:colOff>290147</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>70339</xdr:rowOff>
+      <xdr:rowOff>92320</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="566822" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2929,7 +3350,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1037494" y="1784839"/>
+          <a:off x="1052147" y="1806820"/>
           <a:ext cx="566822" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2960,7 +3381,10 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>DESDE</a:t>
@@ -3112,9 +3536,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>354625</xdr:colOff>
+      <xdr:colOff>391260</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>39566</xdr:rowOff>
+      <xdr:rowOff>83527</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="581121" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3130,7 +3554,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2640625" y="1754066"/>
+          <a:off x="2677260" y="1798027"/>
           <a:ext cx="581121" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3161,7 +3585,10 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>HASTA</a:t>
@@ -3246,10 +3673,1018 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>454270</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600808</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F6A7AF-88C1-41D4-81E9-C001D81BF44C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6550270" y="109904"/>
+          <a:ext cx="2432538" cy="2395903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>665285</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>115765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674078</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectángulo 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB2AB31-F935-4515-9AE6-BB9BAE2D62A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6761285" y="496765"/>
+          <a:ext cx="770793" cy="221273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>generate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>729761</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>738554</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>145074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectángulo 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5488B85B-E22A-4D9B-80FC-AD98BB5D9628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7587761" y="495301"/>
+          <a:ext cx="770793" cy="221273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>report</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>574430</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>39565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>344365</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectángulo 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94506715-92A2-4B69-951A-9DFAE10CC3F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6670430" y="992065"/>
+          <a:ext cx="2055935" cy="1359877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>router</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>688731</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="813288" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CuadroTexto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC9A072-24A3-4C9E-8AEB-DE91057815A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6784731" y="263769"/>
+          <a:ext cx="813288" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t>routes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>246186</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63012</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1705595" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CuadroTexto 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A974A90-F990-4AA7-B625-3D2EB340FC88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1008186" y="1587012"/>
+          <a:ext cx="1705595" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SELECCIONAR UNA FECHA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>263769</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>417635</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectángulo 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7022C99C-F731-40EE-B195-0ED41C4524DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1025769" y="1589942"/>
+          <a:ext cx="4725866" cy="227135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectángulo 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535AEE74-BFFE-4404-B3C5-39825B1818B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009649" y="1859573"/>
+          <a:ext cx="1657350" cy="616927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>253511</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>150934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>386861</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectángulo 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B35868-B328-48A9-B71E-4BFDE56FE6ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1015511" y="1865434"/>
+          <a:ext cx="1657350" cy="193431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252046</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>385396</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectángulo 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12489FD5-20E5-4AE9-91B8-FF22471091AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1014046" y="2061795"/>
+          <a:ext cx="1657350" cy="414705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AB2B89-9DCC-4AF8-A8D9-453A3E19C263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="8362950"/>
+          <a:ext cx="1943100" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26066A95-440E-4D31-B969-42020EE1CF45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562099" y="8601075"/>
+          <a:ext cx="1095375" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C458BB5B-48B7-401A-938E-662A3A11D41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="8362950"/>
+          <a:ext cx="1943100" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156E8082-71A7-4FC4-8FD6-949C83956685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="12496800"/>
+          <a:ext cx="1638299" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF3F8A9-07A9-40E3-8DCA-27E674190926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="12172950"/>
+          <a:ext cx="1943100" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C0BAB7-386F-4D8F-B14D-5A0B82EC148B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800224" y="15982950"/>
+          <a:ext cx="1104901" cy="2486026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3266,7 +4701,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3310,7 +4751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2"/>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3371,7 +4818,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3"/>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3432,7 +4885,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4"/>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3493,7 +4952,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectángulo 5"/>
+        <xdr:cNvPr id="6" name="Rectángulo 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3554,7 +5019,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectángulo 7"/>
+        <xdr:cNvPr id="8" name="Rectángulo 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3615,7 +5086,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectángulo 8"/>
+        <xdr:cNvPr id="9" name="Rectángulo 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3676,7 +5153,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectángulo 9"/>
+        <xdr:cNvPr id="10" name="Rectángulo 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3737,7 +5220,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectángulo 10"/>
+        <xdr:cNvPr id="11" name="Rectángulo 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4048,7 +5537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4646,7 +6135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4735,11 +6224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J3:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="141" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4747,24 +6236,112 @@
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J6" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J23" s="1">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="10:11" x14ac:dyDescent="0.25">
@@ -4800,11 +6377,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="J3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4823,11 +6400,380 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0A59A1-C646-460A-96C8-9EC86B57A172}">
+  <dimension ref="C1:Q88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="4.28515625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="18"/>
+    <col min="13" max="13" width="11.42578125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="14">
+        <v>12346</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="14">
+        <v>45455</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19">
+        <f>SUM(F3:F4)</f>
+        <v>57801</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="J7" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I8" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I10" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="J11" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K12" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="14">
+        <v>12346</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K13" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K14" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14">
+        <v>12346</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="J15" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="J17" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="K18" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="14">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="19" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="K19" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="K20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20">
+        <v>45455</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="J21" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="I23" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="I25" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19">
+        <f>SUM(Q23:Q24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="J26" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="K27" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="K28" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="K29" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L29">
+        <v>57801</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="I31" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H32" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J68" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>125</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J88" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K88" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="K4:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ProyectoCheques/Repositorio/analisis.xlsx
+++ b/ProyectoCheques/Repositorio/analisis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\DSC\DARWINET\darwincitoPrueba\ProyectoCheques\Repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DARWIN\programacion\DarwinGit\dsc-cursos\ProyectoCheques\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C2041-8443-4466-899D-9CD5F92D819D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAREAS" sheetId="3" r:id="rId1"/>
@@ -17,6 +18,7 @@
     <sheet name="GENERAR CHEQUES" sheetId="1" r:id="rId3"/>
     <sheet name="REPORTE GIROS" sheetId="4" r:id="rId4"/>
     <sheet name="reportes" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
   <si>
     <t>SE PUEDE INGRESAR POR LOTES</t>
   </si>
@@ -648,11 +650,29 @@
   <si>
     <t>4 FILAS</t>
   </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>ANGULAR</t>
+  </si>
+  <si>
+    <t>creamos modelo response</t>
+  </si>
+  <si>
+    <t>para recibir la respuesta y guardarla en este modelo</t>
+  </si>
+  <si>
+    <t>creamos servicio</t>
+  </si>
+  <si>
+    <t>para pormedio de httpclient conectarnos al servicio y obtener la respuesta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -719,7 +739,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,6 +758,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -751,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -765,6 +803,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3266,7 +3307,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3310,7 +3357,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2"/>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3371,7 +3424,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3"/>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3432,7 +3491,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4"/>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3493,7 +3558,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectángulo 5"/>
+        <xdr:cNvPr id="6" name="Rectángulo 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3554,7 +3625,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectángulo 7"/>
+        <xdr:cNvPr id="8" name="Rectángulo 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3615,7 +3692,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectángulo 8"/>
+        <xdr:cNvPr id="9" name="Rectángulo 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3676,7 +3759,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectángulo 9"/>
+        <xdr:cNvPr id="10" name="Rectángulo 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3737,7 +3826,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectángulo 10"/>
+        <xdr:cNvPr id="11" name="Rectángulo 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4048,7 +4143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4646,7 +4741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4735,10 +4830,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="J3:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -4800,7 +4895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="J3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4823,7 +4918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="K4:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4850,4 +4945,94 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F5179-FAC1-403B-982F-1AFE55AEEBBF}">
+  <dimension ref="D1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="11.42578125" style="13"/>
+    <col min="10" max="10" width="11.5703125" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="J3" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="14"/>
+      <c r="J5" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+      <c r="K6" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="14"/>
+      <c r="J7" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="14"/>
+      <c r="K8" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ProyectoCheques/Repositorio/analisis.xlsx
+++ b/ProyectoCheques/Repositorio/analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DARWIN\programacion\DarwinGit\dsc-cursos\ProyectoCheques\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C2041-8443-4466-899D-9CD5F92D819D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C1F64-1C0C-4FB7-9C96-CB0082FABF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
   <si>
     <t>SE PUEDE INGRESAR POR LOTES</t>
   </si>
@@ -654,26 +654,255 @@
     <t>API</t>
   </si>
   <si>
-    <t>ANGULAR</t>
-  </si>
-  <si>
-    <t>creamos modelo response</t>
-  </si>
-  <si>
     <t>para recibir la respuesta y guardarla en este modelo</t>
   </si>
   <si>
-    <t>creamos servicio</t>
-  </si>
-  <si>
-    <t>para pormedio de httpclient conectarnos al servicio y obtener la respuesta</t>
+    <t>2 - creamos servicio</t>
+  </si>
+  <si>
+    <t>1 - creamos modelo response (interface)</t>
+  </si>
+  <si>
+    <t>para por medio de httpclient conectarnos al api y consumir un servicio</t>
+  </si>
+  <si>
+    <t>programa grande</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f1 return "0915"</t>
+  </si>
+  <si>
+    <t>var x = f1</t>
+  </si>
+  <si>
+    <t>servicio</t>
+  </si>
+  <si>
+    <t>getCityAll (consumir servicio para obtener todas las ciudades en una variable observable)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">darwin se </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>suscribe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a la promocion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dinosaurioObservable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dinaosarioObservable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  promocion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recibir  12  dinosaurios</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cityObservable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  promocion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recibir  todas las ciudades del ecuador</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">darwin se </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>suscribe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a la promocion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cityObservable</t>
+    </r>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>localhost:5170</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>localhost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:4200</t>
+    </r>
+  </si>
+  <si>
+    <t>dominio del servidor</t>
+  </si>
+  <si>
+    <t>ip del sevidor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>127.0.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:4200</t>
+    </r>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>19.168.100.5</t>
+  </si>
+  <si>
+    <t>0988876811</t>
+  </si>
+  <si>
+    <t>593-'0988876811</t>
+  </si>
+  <si>
+    <t>127.0.0.1:5170</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +967,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -789,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -806,6 +1049,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3881,6 +4125,1060 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5A6F79-7B7B-4A7F-8AA7-688FC2A87909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="9220200"/>
+          <a:ext cx="7505700" cy="2905125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286B5775-DF1C-4DEC-9E9D-9742E151F9A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438526" y="8724900"/>
+          <a:ext cx="1485900" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>192.168.0.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>127.0.0.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8140552-5FEF-4676-955B-53FE8845EC15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515226" y="8848725"/>
+          <a:ext cx="1485900" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>192.168.0.25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>127.0.0.1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AED518-8671-4FA2-A755-3A4A015CBB70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429376" y="11630025"/>
+          <a:ext cx="1485900" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>192.168.0.42</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>127.0.0.1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>439086</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DAFB40-EEBD-44D9-A13D-9D65CBF3ECD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="15897225"/>
+          <a:ext cx="6706536" cy="695422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2466976" cy="969410"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220441EA-F55C-4AE8-B62D-262AB0C87D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590674" y="13992225"/>
+          <a:ext cx="2466976" cy="969410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t>GetCityAll RETORNAR UN OBSERVABLE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>102635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EC23AD-0A9E-4922-9DCD-B4228D2AFBF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2824162" y="14961635"/>
+          <a:ext cx="1471613" cy="983215"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695450" cy="304801"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CuadroTexto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CAA55B4-BAE9-4D33-A3DC-E853CF51E794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="14316074"/>
+          <a:ext cx="1695450" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t>ICityGetAllResponse[]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1752600" cy="647700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CuadroTexto 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10DAD500-F3B6-48D2-B11B-333249D90F02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533526" y="17125950"/>
+          <a:ext cx="1752600" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>METODO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t> DEL SERVICIO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto de flecha 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530C57B7-CC04-49E5-8020-1F258B172B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2409826" y="16249650"/>
+          <a:ext cx="1438274" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1810624" cy="969410"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CuadroTexto 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F144F6-CE50-4237-A373-568042104189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="16964025"/>
+          <a:ext cx="1810624" cy="969410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RESPONSE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" baseline="0"/>
+            <a:t> DEL SERVICIO</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>505262</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector recto de flecha 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E071183-0E7D-484D-922B-B5465465DE90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4553387" y="16335375"/>
+          <a:ext cx="18613" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695450" cy="304801"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CuadroTexto 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE60D9D1-1A86-46FC-87AD-1491F5A07126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="17287874"/>
+          <a:ext cx="1695450" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t>ICityGetAllResponse</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1752600" cy="647700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="CuadroTexto 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE15E9B-0F65-477D-AFED-49D051DB1308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324601" y="17087850"/>
+          <a:ext cx="1752600" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ENDPOINT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t> DEL SERVICIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector recto de flecha 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A888CA04-98CE-4B13-9923-2ADC3AA9E5E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6705600" y="16325850"/>
+          <a:ext cx="495301" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector recto 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790CC89F-A21E-4580-9C31-B22747381794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105150" y="16325850"/>
+          <a:ext cx="5895975" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4833,7 +6131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="J3:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -4921,8 +6219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="K4:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4949,90 +6247,181 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F5179-FAC1-403B-982F-1AFE55AEEBBF}">
-  <dimension ref="D1:K17"/>
+  <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="11.42578125" style="13"/>
+    <col min="1" max="3" width="11.42578125" style="13"/>
+    <col min="4" max="4" width="15" style="13" customWidth="1"/>
+    <col min="5" max="9" width="11.42578125" style="13"/>
     <col min="10" max="10" width="11.5703125" style="13" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:12" x14ac:dyDescent="0.25">
       <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D3" s="15" t="s">
         <v>97</v>
       </c>
       <c r="G3" s="14"/>
       <c r="J3" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
       <c r="G5" s="14"/>
       <c r="J5" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
       <c r="G6" s="14"/>
       <c r="K6" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
       <c r="G7" s="14"/>
       <c r="J7" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
       <c r="G8" s="14"/>
       <c r="K8" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="14"/>
+      <c r="J13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="14"/>
+      <c r="J14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="14"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="14"/>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="13">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ProyectoCheques/Repositorio/analisis.xlsx
+++ b/ProyectoCheques/Repositorio/analisis.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DARWIN\programacion\DarwinGit\dsc-cursos\ProyectoCheques\Repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\DSC\DARWINET\darwincitoPrueba\ProyectoCheques\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C1F64-1C0C-4FB7-9C96-CB0082FABF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TAREAS" sheetId="3" r:id="rId1"/>
@@ -901,7 +900,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2366,7 +2365,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1050681" y="3468567"/>
+          <a:off x="1050681" y="4611567"/>
           <a:ext cx="1291507" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5441,7 +5440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -6039,7 +6038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -6128,11 +6127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J3:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6193,7 +6192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -6216,7 +6215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:K5"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -6246,10 +6245,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F5179-FAC1-403B-982F-1AFE55AEEBBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>

--- a/ProyectoCheques/Repositorio/analisis.xlsx
+++ b/ProyectoCheques/Repositorio/analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DARWIN\programacion\DarwinGit\dsc-cursos\ProyectoCheques\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C1F64-1C0C-4FB7-9C96-CB0082FABF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F6A084-E7B8-4201-8D0F-A3004CD706EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAREAS" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="REPORTE GIROS" sheetId="4" r:id="rId4"/>
     <sheet name="reportes" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="151">
   <si>
     <t>SE PUEDE INGRESAR POR LOTES</t>
   </si>
@@ -896,6 +898,240 @@
   </si>
   <si>
     <t>127.0.0.1:5170</t>
+  </si>
+  <si>
+    <t>CONSUMIR UNA API</t>
+  </si>
+  <si>
+    <t>CREAR LOS MODELOS</t>
+  </si>
+  <si>
+    <t>REQUEST</t>
+  </si>
+  <si>
+    <t>RESPONSE</t>
+  </si>
+  <si>
+    <t>CREAR UN SERVICIO</t>
+  </si>
+  <si>
+    <t>METODO: GET, POST, PUT, DELETE</t>
+  </si>
+  <si>
+    <t>URL O ENDPOINT</t>
+  </si>
+  <si>
+    <t>CABECERAS DE AUTHORIZACION O HEADERS (TOKENS)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUCRIBIRSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AL METODO OBSERVABLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INJECTAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EL SERVICIO EN EL COMPONENTE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GUARDAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF66FFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RESULTADO EN UNA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARIABLE PUBLICA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IR A UN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">COMPONENTE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DONDE VAMOS A CONSUMIR EL SERVICIO (TS)</t>
+    </r>
+  </si>
+  <si>
+    <t>CREAR UNA ETIQUETA NG-CONTAINER</t>
+  </si>
+  <si>
+    <t>CREAR EN ELLA UNA DIRECTIVA -ngFor</t>
+  </si>
+  <si>
+    <t>PARA RECORRER LA VARIABLE PUBLICA QUE CONTIENE LOS RESULTADOS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POR CADA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VUELTA DEL FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RECORREMOS LOS ITEMS Y DETERMINAMOS LAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROPIEDADES A USAR</t>
+    </r>
+  </si>
+  <si>
+    <t>INJECTAS HTTPCLIENT (en el constructor)</t>
+  </si>
+  <si>
+    <t>CREAS UN METODO QUE RETORNA UN OBSERVABLE (con su modelo response)</t>
+  </si>
+  <si>
+    <t>ESTABLECER EL MODELO RESPONSE QUE DEVUELVE LA SOLICITUD</t>
+  </si>
+  <si>
+    <t>IR A AL (HTML) Y  GENERAR HTML CON LOS RESULTADOS</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ </t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cedula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "0918723453" ,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nombre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "papito"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -982,7 +1218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,6 +1255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1032,7 +1274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1050,6 +1292,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5179,6 +5423,1552 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6940CF-F436-48F3-B1A1-523291D3475C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590799" y="5724523"/>
+          <a:ext cx="3724276" cy="4800601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2BEC67-2C91-4983-808B-7F822A6EF9E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="6219825"/>
+          <a:ext cx="2257425" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CONTROLLER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF86E2F3-6325-4D7E-84A8-C7B3CEE7265D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="6696075"/>
+          <a:ext cx="2257425" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CONTROLLER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F1611D-FCFF-4BD9-B063-D8EB20DB85BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="7181850"/>
+          <a:ext cx="3352800" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CONTROLLER: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CITY</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8DBF26-2A78-4F11-95B8-5E830F05D521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="7496175"/>
+          <a:ext cx="2943225" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>METHOD: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CITIES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619516</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A113D46-7C1B-4A0A-9AB0-3398EDD85598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="54538"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076575" y="7791450"/>
+          <a:ext cx="2800741" cy="428757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9948D785-7E91-40AD-B290-499A526F4529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="8515350"/>
+          <a:ext cx="3352800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>REQUEST: NONE</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-EC" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectángulo 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD5583A-28E3-4730-A424-509BD38DD365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="8972549"/>
+          <a:ext cx="3352800" cy="1362076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RESPONSE</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-EC" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectángulo 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE03AB78-776E-4D88-A432-A3A3E2D96FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2952749" y="9324975"/>
+          <a:ext cx="3076575" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC"/>
+            <a:t>{ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>"id": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>, "name": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" 28 de Mayo "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC"/>
+            <a:t>} , </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC"/>
+            <a:t>  { </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>"id": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>, "name": </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" Alamor"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Globo: línea 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9405D911-206A-42BB-A667-AB0A6D9D8C2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="6934200"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54509"/>
+            <a:gd name="adj2" fmla="val -3125"/>
+            <a:gd name="adj3" fmla="val 278133"/>
+            <a:gd name="adj4" fmla="val -310208"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t>METODO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Globo: línea 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0FE535-9531-4663-B687-67DEE995D0BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="7077075"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54509"/>
+            <a:gd name="adj2" fmla="val -3125"/>
+            <a:gd name="adj3" fmla="val 278133"/>
+            <a:gd name="adj4" fmla="val -310208"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t>URL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Globo: línea 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB427D0-84FB-4FB0-A5B0-493E9B3CFE63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591549" y="7715250"/>
+          <a:ext cx="2152651" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54509"/>
+            <a:gd name="adj2" fmla="val -3125"/>
+            <a:gd name="adj3" fmla="val 278134"/>
+            <a:gd name="adj4" fmla="val -172395"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t>REQUEST:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100" baseline="0"/>
+            <a:t> DATOS DE ENTRADA</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Globo: línea 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF56B88-086E-477E-B613-0C2265EB7F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391650" y="9248775"/>
+          <a:ext cx="2095499" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54509"/>
+            <a:gd name="adj2" fmla="val -3125"/>
+            <a:gd name="adj3" fmla="val -32678"/>
+            <a:gd name="adj4" fmla="val -267026"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t>RESPONSE: DATOS DE SALIDA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Globo: línea 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B58A52-614D-4C51-BB04-0B240D9A212F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601074" y="8172450"/>
+          <a:ext cx="2152651" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54509"/>
+            <a:gd name="adj2" fmla="val -3125"/>
+            <a:gd name="adj3" fmla="val 75431"/>
+            <a:gd name="adj4" fmla="val -86112"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100"/>
+            <a:t>HEADERS: CABECERAS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4A486E-47A7-4FA0-BE9E-15D67C2103FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="266700"/>
+          <a:ext cx="2905125" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC11681F-B9BF-4837-AAE4-CF61CFA106A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981575" y="762000"/>
+          <a:ext cx="1924050" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0918723453</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA43DA8B-CDB6-4697-B9DA-D01B8B08A876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="1571625"/>
+          <a:ext cx="1924050" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>papito</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="562718" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714A755A-05A8-4320-B51F-DF7AEB3DB3D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943475" y="495300"/>
+          <a:ext cx="562718" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cedula</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="639342" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CuadroTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070673F7-B8DC-48D8-8044-E2C7A1C5FD33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="1295400"/>
+          <a:ext cx="639342" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nombre</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BAB3D92-A3DE-492C-A7B6-2ABA0594DB7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2867025" y="876300"/>
+          <a:ext cx="1971675" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto de flecha 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFF52A5-4892-4420-A94E-83B2EA810DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2695575" y="1457325"/>
+          <a:ext cx="2486026" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -6247,10 +8037,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F5179-FAC1-403B-982F-1AFE55AEEBBF}">
-  <dimension ref="B1:L40"/>
+  <dimension ref="B1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6419,6 +8209,176 @@
         <v>114</v>
       </c>
     </row>
+    <row r="99" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064DAA25-40A8-40A6-9A34-69A5977452C4}">
+  <dimension ref="C3:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="3.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6E9CC2-F3DF-44C8-A092-7EA8CB272C9E}">
+  <dimension ref="C3:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProyectoCheques/Repositorio/analisis.xlsx
+++ b/ProyectoCheques/Repositorio/analisis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\DSC\DARWINET\darwincitoPrueba\ProyectoCheques\Repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DARWIN\programacion\DarwinGit\dsc-cursos\ProyectoCheques\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E991CEF3-A7EE-4735-8DAC-4CEDEB83B4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAREAS" sheetId="3" r:id="rId1"/>
@@ -21,17 +22,23 @@
     <sheet name="Hoja2" sheetId="7" r:id="rId7"/>
     <sheet name="Hoja3" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="179">
   <si>
     <t>SE PUEDE INGRESAR POR LOTES</t>
   </si>
@@ -1192,12 +1199,60 @@
   <si>
     <t>NOMBRES Y APELLIDOS 4</t>
   </si>
+  <si>
+    <t>git pull origin master</t>
+  </si>
+  <si>
+    <t>git fetch origin master</t>
+  </si>
+  <si>
+    <t>git merge origin/master</t>
+  </si>
+  <si>
+    <t>remoto</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fetch cambios </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">merge cambios </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mater</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,6 +1331,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1333,7 +1395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,6 +1416,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7026,6 +7089,133 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00020CC1-0529-477A-9A46-9D90F849646A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="8353425"/>
+          <a:ext cx="2400300" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1592167" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CuadroTexto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95EE20C-1A78-4688-946E-325838556B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="8582025"/>
+          <a:ext cx="1592167" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-EC" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FORMCONTROL CEDULA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7291,7 +7481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -7889,7 +8079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -7978,7 +8168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="J3:K40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -8043,7 +8233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="J3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -8066,7 +8256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="K4:K5"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -8096,7 +8286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:L99"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
@@ -8278,7 +8468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:G26"/>
   <sheetViews>
     <sheetView topLeftCell="B33" workbookViewId="0">
@@ -8402,11 +8592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B3:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8668,6 +8858,43 @@
         <v>166</v>
       </c>
     </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProyectoCheques/Repositorio/analisis.xlsx
+++ b/ProyectoCheques/Repositorio/analisis.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DARWIN\programacion\DarwinGit\dsc-cursos\ProyectoCheques\Repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\DSC\DARWINET\darwincitoPrueba\ProyectoCheques\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F6A084-E7B8-4201-8D0F-A3004CD706EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TAREAS" sheetId="3" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="171">
   <si>
     <t>SE PUEDE INGRESAR POR LOTES</t>
   </si>
@@ -1133,11 +1132,71 @@
       <t>: "papito"</t>
     </r>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>BeneficiaryName</t>
+  </si>
+  <si>
+    <t>ReportTypeName</t>
+  </si>
+  <si>
+    <t>CityName</t>
+  </si>
+  <si>
+    <t>ChequeNumber</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>PaymentDetail</t>
+  </si>
+  <si>
+    <t>Ecuatoriana de Comercio S.A.</t>
+  </si>
+  <si>
+    <t>Banco del Pacífico</t>
+  </si>
+  <si>
+    <t>DARWIN RODOLFO SANCHEZ CORREA</t>
+  </si>
+  <si>
+    <t>Reporte Individual</t>
+  </si>
+  <si>
+    <t> Amaluza</t>
+  </si>
+  <si>
+    <t>Detalle  general de cheques</t>
+  </si>
+  <si>
+    <t>NOMBRES Y APELLIDOS 1</t>
+  </si>
+  <si>
+    <t>NOMBRES Y APELLIDOS 2</t>
+  </si>
+  <si>
+    <t>NOMBRES Y APELLIDOS 3</t>
+  </si>
+  <si>
+    <t>NOMBRES Y APELLIDOS 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1274,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1294,6 +1353,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7231,7 +7291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -7829,7 +7889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -7918,7 +7978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J3:K40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -7983,7 +8043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -8006,7 +8066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:K5"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -8036,7 +8096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F5179-FAC1-403B-982F-1AFE55AEEBBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L99"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
@@ -8218,7 +8278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064DAA25-40A8-40A6-9A34-69A5977452C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G26"/>
   <sheetViews>
     <sheetView topLeftCell="B33" workbookViewId="0">
@@ -8342,11 +8402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6E9CC2-F3DF-44C8-A092-7EA8CB272C9E}">
-  <dimension ref="C3:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8354,29 +8414,258 @@
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>7*72</f>
+        <v>504</v>
+      </c>
+      <c r="C16" s="1">
+        <f>523/7</f>
+        <v>74.714285714285708</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>SUM(C19:L19)</f>
+        <v>504</v>
+      </c>
+      <c r="F19" s="1">
+        <v>110</v>
+      </c>
+      <c r="G19" s="1">
+        <v>70</v>
+      </c>
+      <c r="H19" s="1">
+        <v>70</v>
+      </c>
+      <c r="I19" s="1">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1">
+        <v>40</v>
+      </c>
+      <c r="K19" s="1">
+        <v>40</v>
+      </c>
+      <c r="L19" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11223344556677</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1977</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1453.33</v>
+      </c>
+      <c r="K21" s="19">
+        <v>45836</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11223344556677</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1978</v>
+      </c>
+      <c r="J22" s="1">
+        <v>123.34</v>
+      </c>
+      <c r="K22" s="19">
+        <v>45836</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="1">
+        <v>11223344556677</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1979</v>
+      </c>
+      <c r="J23" s="1">
+        <v>223.34</v>
+      </c>
+      <c r="K23" s="19">
+        <v>45836</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="1">
+        <v>11223344556677</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1980</v>
+      </c>
+      <c r="J24" s="1">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="K24" s="19">
+        <v>45836</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="1">
+        <v>11223344556677</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1981</v>
+      </c>
+      <c r="J25" s="1">
+        <v>423.34</v>
+      </c>
+      <c r="K25" s="19">
+        <v>45836</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
